--- a/IOS tableview.xlsx
+++ b/IOS tableview.xlsx
@@ -53,24 +53,23 @@
     <t>override func tableView(_ tableView: UITableView, cellForRowAt indexPath: IndexPath)</t>
   </si>
   <si>
-    <t>override func tableView(_ tableView: UITableView, canEditRowAt indexPath: IndexPath) -&gt; Bool {
-        return true
-    }</t>
-  </si>
-  <si>
     <t>thêm xóa sửa row trên table</t>
+  </si>
+  <si>
+    <t>cho phép/ không cho phép edit từng row trên table view</t>
   </si>
   <si>
     <t>override func tableView(_ tableView: UITableView, commit editingStyle: UITableViewCellEditingStyle, forRowAt indexPath: IndexPath) {
         if editingStyle == .delete {
-            // todo
+            // todo 3333333333333
         } else if editingStyle == .insert {
-            // todo
+            // todo 222222222222
         }
     }</t>
   </si>
   <si>
-    <t>cho phép/ không cho phép edit từng row trên table view</t>
+    <t>override func tableView(_ tableView: UITableView, canEditRowAt indexPath: IndexPath) -&gt; Bool {
+    }</t>
   </si>
 </sst>
 </file>
@@ -166,15 +165,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -523,14 +522,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="82.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -540,42 +539,42 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" ht="60">
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" ht="45">
       <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="120">
@@ -583,59 +582,59 @@
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
